--- a/teaching/traditional_assets/database/data/south_africa/south_africa_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/south_africa/south_africa_insurance_life.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.00464</v>
+        <v>0.0611</v>
       </c>
       <c r="E2">
-        <v>0.05429999999999999</v>
+        <v>-0.426</v>
       </c>
       <c r="F2">
-        <v>0.0537</v>
+        <v>-0.00456</v>
       </c>
       <c r="G2">
-        <v>0.1007661042402346</v>
+        <v>0.1759394714228827</v>
       </c>
       <c r="H2">
-        <v>0.1007661042402346</v>
+        <v>0.1759394714228827</v>
       </c>
       <c r="I2">
-        <v>0.1210567679266636</v>
+        <v>0.08253401938620569</v>
       </c>
       <c r="J2">
-        <v>0.09365753318009253</v>
+        <v>0.0572749498262625</v>
       </c>
       <c r="K2">
-        <v>3930.6</v>
+        <v>-44.59999999999999</v>
       </c>
       <c r="L2">
-        <v>0.1188150775988871</v>
+        <v>-0.001869511453901452</v>
       </c>
       <c r="M2">
-        <v>2300.3</v>
+        <v>1465.031</v>
       </c>
       <c r="N2">
-        <v>0.07015633673089711</v>
+        <v>0.05796593337026193</v>
       </c>
       <c r="O2">
-        <v>0.5852287182618431</v>
+        <v>-32.84822869955157</v>
       </c>
       <c r="P2">
-        <v>1435.1</v>
+        <v>1247.9</v>
       </c>
       <c r="Q2">
-        <v>0.04376879487132566</v>
+        <v>0.0493748516261771</v>
       </c>
       <c r="R2">
-        <v>0.3651096524703608</v>
+        <v>-27.9798206278027</v>
       </c>
       <c r="S2">
-        <v>865.2</v>
+        <v>217.1310000000001</v>
       </c>
       <c r="T2">
-        <v>0.3761248532800069</v>
+        <v>0.1482091505230948</v>
       </c>
       <c r="U2">
-        <v>10821.7</v>
+        <v>10308.9</v>
       </c>
       <c r="V2">
-        <v>0.3300486150505365</v>
+        <v>0.4078855741077787</v>
       </c>
       <c r="W2">
-        <v>0.1637596750265427</v>
+        <v>0.003439294777614532</v>
       </c>
       <c r="X2">
-        <v>0.1024134678025885</v>
+        <v>0.09194599308945037</v>
       </c>
       <c r="Y2">
-        <v>0.06134620722395415</v>
+        <v>-0.08850669831183583</v>
       </c>
       <c r="Z2">
-        <v>2.124622535288485</v>
+        <v>2.144107531621806</v>
       </c>
       <c r="AA2">
-        <v>0.1884575317743541</v>
+        <v>0.01749557379687751</v>
       </c>
       <c r="AB2">
-        <v>0.09057686582821842</v>
+        <v>0.08341519738282777</v>
       </c>
       <c r="AC2">
-        <v>0.09829395948316348</v>
+        <v>-0.06653000081265914</v>
       </c>
       <c r="AD2">
-        <v>5804</v>
+        <v>5346.2</v>
       </c>
       <c r="AE2">
-        <v>240.215813756053</v>
+        <v>0.4408325649191488</v>
       </c>
       <c r="AF2">
-        <v>6044.215813756054</v>
+        <v>5346.640832564919</v>
       </c>
       <c r="AG2">
-        <v>-4777.484186243945</v>
+        <v>-4962.259167435081</v>
       </c>
       <c r="AH2">
-        <v>0.1556487199443034</v>
+        <v>0.1746090443306069</v>
       </c>
       <c r="AI2">
-        <v>0.2311883812332186</v>
+        <v>0.2557266444063456</v>
       </c>
       <c r="AJ2">
-        <v>-0.1705591609300368</v>
+        <v>-0.2443049666860316</v>
       </c>
       <c r="AK2">
-        <v>-0.3117970589177489</v>
+        <v>-0.4681932736942113</v>
       </c>
       <c r="AL2">
-        <v>358.53</v>
+        <v>357.22</v>
       </c>
       <c r="AM2">
-        <v>358.53</v>
+        <v>357.22</v>
       </c>
       <c r="AN2">
-        <v>1.577091630001913</v>
+        <v>2.30911331379054</v>
       </c>
       <c r="AO2">
-        <v>11.10902853317714</v>
+        <v>5.510889647836068</v>
       </c>
       <c r="AP2">
-        <v>-1.298161668261858</v>
+        <v>-2.143282838278311</v>
       </c>
       <c r="AQ2">
-        <v>11.10902853317714</v>
+        <v>5.510889647836068</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sanlam Limited (JSE:SLM)</t>
+          <t>Clientèle Limited (JSE:CLI)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -728,121 +728,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.00464</v>
+        <v>0.109</v>
       </c>
       <c r="E3">
-        <v>0.018</v>
+        <v>-0.019</v>
       </c>
       <c r="G3">
-        <v>0.1216535241433022</v>
+        <v>0.4334621755935947</v>
       </c>
       <c r="H3">
-        <v>0.1216535241433022</v>
+        <v>0.4334621755935947</v>
       </c>
       <c r="I3">
-        <v>0.1422227707698651</v>
+        <v>0.4246272777471011</v>
       </c>
       <c r="J3">
-        <v>0.0995893338758982</v>
+        <v>0.3061530258260587</v>
       </c>
       <c r="K3">
-        <v>709.1</v>
+        <v>18.9</v>
       </c>
       <c r="L3">
-        <v>0.08629040109034268</v>
+        <v>0.1043622308117062</v>
       </c>
       <c r="M3">
-        <v>1145</v>
+        <v>25.3</v>
       </c>
       <c r="N3">
-        <v>0.0928516401086648</v>
+        <v>0.1249382716049383</v>
       </c>
       <c r="O3">
-        <v>1.6147228881681</v>
+        <v>1.338624338624339</v>
       </c>
       <c r="P3">
-        <v>524.3</v>
+        <v>25.3</v>
       </c>
       <c r="Q3">
-        <v>0.0425171309248672</v>
+        <v>0.1249382716049383</v>
       </c>
       <c r="R3">
-        <v>0.7393879565646594</v>
+        <v>1.338624338624339</v>
       </c>
       <c r="S3">
-        <v>620.7</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.5420960698689957</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>4610.9</v>
+        <v>27.9</v>
       </c>
       <c r="V3">
-        <v>0.3739123383205611</v>
+        <v>0.1377777777777778</v>
       </c>
       <c r="W3">
-        <v>0.1531301962986158</v>
+        <v>0.2371392722710163</v>
       </c>
       <c r="X3">
-        <v>0.09583410427722787</v>
+        <v>0.08460210333927121</v>
       </c>
       <c r="Y3">
-        <v>0.0572960920213879</v>
+        <v>0.1525371689317451</v>
       </c>
       <c r="Z3">
-        <v>31.53933962231905</v>
+        <v>2.547116736990155</v>
       </c>
       <c r="AA3">
-        <v>3.140981823872477</v>
+        <v>0.7798074961617335</v>
       </c>
       <c r="AB3">
-        <v>0.09080675315192389</v>
+        <v>0.08299535394758481</v>
       </c>
       <c r="AC3">
-        <v>3.050175070720553</v>
+        <v>0.6968121422141487</v>
       </c>
       <c r="AD3">
-        <v>919</v>
+        <v>6.5</v>
       </c>
       <c r="AE3">
-        <v>163.8507946077845</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1082.850794607785</v>
+        <v>6.5</v>
       </c>
       <c r="AG3">
-        <v>-3528.049205392215</v>
+        <v>-21.4</v>
       </c>
       <c r="AH3">
-        <v>0.08072330977381791</v>
+        <v>0.03110047846889952</v>
       </c>
       <c r="AI3">
-        <v>0.164288578482177</v>
+        <v>0.1001540832049307</v>
       </c>
       <c r="AJ3">
-        <v>-0.4007575310755626</v>
+        <v>-0.1181667586968526</v>
       </c>
       <c r="AK3">
-        <v>-1.781617366345253</v>
+        <v>-0.5783783783783784</v>
       </c>
       <c r="AL3">
-        <v>77.2</v>
+        <v>1.62</v>
       </c>
       <c r="AM3">
-        <v>77.2</v>
+        <v>1.62</v>
       </c>
       <c r="AN3">
-        <v>0.7070318510540082</v>
+        <v>0.08280254777070063</v>
       </c>
       <c r="AO3">
-        <v>14.89766839378238</v>
+        <v>47.46913580246914</v>
       </c>
       <c r="AP3">
-        <v>-2.714301589007705</v>
+        <v>-0.2726114649681529</v>
       </c>
       <c r="AQ3">
-        <v>14.89766839378238</v>
+        <v>47.46913580246914</v>
       </c>
     </row>
     <row r="4">
@@ -853,7 +853,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clientèle Limited (JSE:CLI)</t>
+          <t>Liberty Holdings Limited (JSE:LBH)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -862,121 +862,118 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.125</v>
-      </c>
-      <c r="E4">
-        <v>0.05429999999999999</v>
+        <v>-0.0595</v>
       </c>
       <c r="G4">
-        <v>0.4083409715857012</v>
+        <v>0.2516804127457036</v>
       </c>
       <c r="H4">
-        <v>0.4083409715857012</v>
+        <v>0.2516804127457036</v>
       </c>
       <c r="I4">
-        <v>0.4000916590284143</v>
+        <v>0.03382625440540638</v>
       </c>
       <c r="J4">
-        <v>0.4000916590284143</v>
+        <v>0.03382625440540638</v>
       </c>
       <c r="K4">
-        <v>28.4</v>
+        <v>-68.09999999999999</v>
       </c>
       <c r="L4">
-        <v>0.1301558203483043</v>
+        <v>-0.02474294226646804</v>
       </c>
       <c r="M4">
-        <v>29.6</v>
+        <v>226.8</v>
       </c>
       <c r="N4">
-        <v>0.08323959505061868</v>
+        <v>0.2038468452273953</v>
       </c>
       <c r="O4">
-        <v>1.042253521126761</v>
+        <v>-3.330396475770925</v>
       </c>
       <c r="P4">
-        <v>29.6</v>
+        <v>209.7</v>
       </c>
       <c r="Q4">
-        <v>0.08323959505061868</v>
+        <v>0.1884774402300917</v>
       </c>
       <c r="R4">
-        <v>1.042253521126761</v>
+        <v>-3.079295154185022</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>17.09999999999999</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.07539682539682538</v>
       </c>
       <c r="U4">
-        <v>16.6</v>
+        <v>873.8</v>
       </c>
       <c r="V4">
-        <v>0.04668166479190101</v>
+        <v>0.7853676074060759</v>
       </c>
       <c r="W4">
-        <v>0.3446601941747572</v>
+        <v>-0.0408837125532809</v>
       </c>
       <c r="X4">
-        <v>0.09244457222208589</v>
+        <v>0.1492397311213027</v>
       </c>
       <c r="Y4">
-        <v>0.2522156219526713</v>
+        <v>-0.1901234436745836</v>
       </c>
       <c r="Z4">
-        <v>3.439470365699874</v>
+        <v>2.201311685195553</v>
       </c>
       <c r="AA4">
-        <v>1.376103404791929</v>
+        <v>0.07446212908901863</v>
       </c>
       <c r="AB4">
-        <v>0.09124392819188341</v>
+        <v>0.08722760955256088</v>
       </c>
       <c r="AC4">
-        <v>1.284859476600046</v>
+        <v>-0.01276548046354226</v>
       </c>
       <c r="AD4">
-        <v>8</v>
+        <v>1392.8</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>8</v>
+        <v>1392.8</v>
       </c>
       <c r="AG4">
-        <v>-8.600000000000001</v>
+        <v>519</v>
       </c>
       <c r="AH4">
-        <v>0.022002200220022</v>
+        <v>0.5559192144966872</v>
       </c>
       <c r="AI4">
-        <v>0.09122006841505131</v>
+        <v>0.4648244560138834</v>
       </c>
       <c r="AJ4">
-        <v>-0.02478386167146975</v>
+        <v>0.318092669772003</v>
       </c>
       <c r="AK4">
-        <v>-0.1209563994374121</v>
+        <v>0.2445114482238764</v>
       </c>
       <c r="AL4">
-        <v>2.03</v>
+        <v>15.6</v>
       </c>
       <c r="AM4">
-        <v>2.03</v>
+        <v>15.6</v>
       </c>
       <c r="AN4">
-        <v>0.08978675645342313</v>
+        <v>12.76626947754354</v>
       </c>
       <c r="AO4">
-        <v>43.00492610837438</v>
+        <v>5.967948717948718</v>
       </c>
       <c r="AP4">
-        <v>-0.09652076318742987</v>
+        <v>4.757103574702108</v>
       </c>
       <c r="AQ4">
-        <v>43.00492610837438</v>
+        <v>5.967948717948718</v>
       </c>
     </row>
     <row r="5">
@@ -987,7 +984,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Momentum Metropolitan Holdings Limited (JSE:MTM)</t>
+          <t>Rand Merchant Investment Holdings Limited (JSE:RMI)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -996,121 +993,121 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.0487</v>
+        <v>0.0711</v>
       </c>
       <c r="E5">
-        <v>-0.0674</v>
+        <v>-0.135</v>
       </c>
       <c r="G5">
-        <v>0.1066029737163182</v>
+        <v>0.2147968848663439</v>
       </c>
       <c r="H5">
-        <v>0.1066029737163182</v>
+        <v>0.2147968848663439</v>
       </c>
       <c r="I5">
-        <v>0.09780900601816821</v>
+        <v>0.206980460415719</v>
       </c>
       <c r="J5">
-        <v>0.0489045030090841</v>
+        <v>0.1317838894756963</v>
       </c>
       <c r="K5">
-        <v>159.6</v>
+        <v>91.8</v>
       </c>
       <c r="L5">
-        <v>0.03300452881692412</v>
+        <v>0.09661123973900231</v>
       </c>
       <c r="M5">
-        <v>74.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="N5">
-        <v>0.03283963678039319</v>
+        <v>0.02903708133971292</v>
       </c>
       <c r="O5">
-        <v>0.4667919799498747</v>
+        <v>1.057734204793028</v>
       </c>
       <c r="P5">
-        <v>36</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="Q5">
-        <v>0.01586881777307591</v>
+        <v>0.02903708133971292</v>
       </c>
       <c r="R5">
-        <v>0.2255639097744361</v>
+        <v>1.057734204793028</v>
       </c>
       <c r="S5">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.5167785234899329</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>1921.8</v>
+        <v>139.1</v>
       </c>
       <c r="V5">
-        <v>0.8471303887860354</v>
+        <v>0.04159688995215311</v>
       </c>
       <c r="W5">
-        <v>0.1023208103603026</v>
+        <v>0.05284365645866912</v>
       </c>
       <c r="X5">
-        <v>0.1057098296663852</v>
+        <v>0.09372691954813907</v>
       </c>
       <c r="Y5">
-        <v>-0.003389019306082569</v>
+        <v>-0.04088326308946995</v>
       </c>
       <c r="Z5">
-        <v>14.76437147667844</v>
+        <v>0.3922328107856719</v>
       </c>
       <c r="AA5">
-        <v>0.7220442493084561</v>
+        <v>0.0516899653853207</v>
       </c>
       <c r="AB5">
-        <v>0.09000929491276377</v>
+        <v>0.08341519738282777</v>
       </c>
       <c r="AC5">
-        <v>0.6320349543956923</v>
+        <v>-0.03172523199750707</v>
       </c>
       <c r="AD5">
-        <v>613.4</v>
+        <v>682.7</v>
       </c>
       <c r="AE5">
-        <v>17.52494798971972</v>
+        <v>0.4408325649191488</v>
       </c>
       <c r="AF5">
-        <v>630.9249479897197</v>
+        <v>683.1408325649192</v>
       </c>
       <c r="AG5">
-        <v>-1290.87505201028</v>
+        <v>544.0408325649191</v>
       </c>
       <c r="AH5">
-        <v>0.2175959715149713</v>
+        <v>0.1696342047541012</v>
       </c>
       <c r="AI5">
-        <v>0.2745748532940649</v>
+        <v>0.3008316667413938</v>
       </c>
       <c r="AJ5">
-        <v>-1.320284456957371</v>
+        <v>0.1399267281372707</v>
       </c>
       <c r="AK5">
-        <v>-3.432950549987369</v>
+        <v>0.2552096503730836</v>
       </c>
       <c r="AL5">
-        <v>72.3</v>
+        <v>39.7</v>
       </c>
       <c r="AM5">
-        <v>72.3</v>
+        <v>39.7</v>
       </c>
       <c r="AN5">
-        <v>1.173791572582188</v>
+        <v>3.337390802743436</v>
       </c>
       <c r="AO5">
-        <v>6.492392807745505</v>
+        <v>4.944584382871536</v>
       </c>
       <c r="AP5">
-        <v>-2.470196050385166</v>
+        <v>2.659553055396283</v>
       </c>
       <c r="AQ5">
-        <v>6.492392807745505</v>
+        <v>4.944584382871536</v>
       </c>
     </row>
     <row r="6">
@@ -1130,121 +1127,121 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.115</v>
+        <v>0.104</v>
       </c>
       <c r="E6">
-        <v>0.148</v>
+        <v>-0.4970000000000001</v>
       </c>
       <c r="G6">
-        <v>0.1663426692586459</v>
+        <v>0.04031261750013428</v>
       </c>
       <c r="H6">
-        <v>0.1663426692586459</v>
+        <v>0.04031261750013428</v>
       </c>
       <c r="I6">
-        <v>0.1562132267211197</v>
+        <v>0.02919374764999732</v>
       </c>
       <c r="J6">
-        <v>0.1304656310218127</v>
+        <v>0.01459687382499866</v>
       </c>
       <c r="K6">
-        <v>468.2</v>
+        <v>10.3</v>
       </c>
       <c r="L6">
-        <v>0.1123671010631915</v>
+        <v>0.002766288875758715</v>
       </c>
       <c r="M6">
-        <v>99.09999999999999</v>
+        <v>81.631</v>
       </c>
       <c r="N6">
-        <v>0.01750728734210759</v>
+        <v>0.01173112021268952</v>
       </c>
       <c r="O6">
-        <v>0.2116616830414353</v>
+        <v>7.925339805825242</v>
       </c>
       <c r="P6">
-        <v>99.09999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="Q6">
-        <v>0.01750728734210759</v>
+        <v>0.01169792340303226</v>
       </c>
       <c r="R6">
-        <v>0.2116616830414353</v>
+        <v>7.902912621359223</v>
       </c>
       <c r="S6">
+        <v>0.2309999999999945</v>
+      </c>
+      <c r="T6">
+        <v>0.002829807303597831</v>
+      </c>
+      <c r="U6">
+        <v>1032.3</v>
+      </c>
+      <c r="V6">
+        <v>0.148350937702091</v>
+      </c>
+      <c r="W6">
+        <v>0.003439294777614532</v>
+      </c>
+      <c r="X6">
+        <v>0.09185089237203548</v>
+      </c>
+      <c r="Y6">
+        <v>-0.08841159759442094</v>
+      </c>
+      <c r="Z6">
+        <v>1.198583615000805</v>
+      </c>
+      <c r="AA6">
+        <v>0.01749557379687751</v>
+      </c>
+      <c r="AB6">
+        <v>0.08402557460953665</v>
+      </c>
+      <c r="AC6">
+        <v>-0.06653000081265914</v>
+      </c>
+      <c r="AD6">
+        <v>1175.2</v>
+      </c>
+      <c r="AE6">
         <v>0</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>665.7</v>
-      </c>
-      <c r="V6">
-        <v>0.1176044519035421</v>
-      </c>
-      <c r="W6">
-        <v>0.1743891537544696</v>
-      </c>
-      <c r="X6">
-        <v>0.1011352575989847</v>
-      </c>
-      <c r="Y6">
-        <v>0.07325389615548492</v>
-      </c>
-      <c r="Z6">
-        <v>1.468346481440397</v>
-      </c>
-      <c r="AA6">
-        <v>0.1915687502597799</v>
-      </c>
-      <c r="AB6">
-        <v>0.09034697850451295</v>
-      </c>
-      <c r="AC6">
-        <v>0.1012217717552669</v>
-      </c>
-      <c r="AD6">
-        <v>1050.9</v>
-      </c>
-      <c r="AE6">
-        <v>24.38174110555349</v>
-      </c>
       <c r="AF6">
-        <v>1075.281741105554</v>
+        <v>1175.2</v>
       </c>
       <c r="AG6">
-        <v>409.5817411055536</v>
+        <v>142.9000000000001</v>
       </c>
       <c r="AH6">
-        <v>0.159637259999619</v>
+        <v>0.1444852895976001</v>
       </c>
       <c r="AI6">
-        <v>0.2606628770778416</v>
+        <v>0.3139559734986108</v>
       </c>
       <c r="AJ6">
-        <v>0.06747549021159571</v>
+        <v>0.02012279268876561</v>
       </c>
       <c r="AK6">
-        <v>0.1183939594878922</v>
+        <v>0.05271312110369254</v>
       </c>
       <c r="AL6">
-        <v>95</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AM6">
-        <v>95</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AN6">
-        <v>1.502423263327948</v>
+        <v>7.829447035309794</v>
       </c>
       <c r="AO6">
-        <v>6.83578947368421</v>
+        <v>1.137029288702929</v>
       </c>
       <c r="AP6">
-        <v>0.5855601256745159</v>
+        <v>0.9520319786808801</v>
       </c>
       <c r="AQ6">
-        <v>6.83578947368421</v>
+        <v>1.137029288702929</v>
       </c>
     </row>
     <row r="7">
@@ -1255,7 +1252,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liberty Holdings Limited (JSE:LBH)</t>
+          <t>Old Mutual Limited (JSE:OMU)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1264,115 +1261,121 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.0392</v>
-      </c>
-      <c r="E7">
-        <v>-0.0766</v>
+        <v>-0.202</v>
+      </c>
+      <c r="F7">
+        <v>-0.00456</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.1370125994160066</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.1370125994160066</v>
       </c>
       <c r="I7">
-        <v>0.1398078975453575</v>
+        <v>-0.01264781325116557</v>
       </c>
       <c r="J7">
-        <v>0.08847385272145143</v>
+        <v>-0.01264781325116557</v>
       </c>
       <c r="K7">
-        <v>194.5</v>
+        <v>-118.3</v>
       </c>
       <c r="L7">
-        <v>0.04324528637495553</v>
+        <v>-0.01908464678077661</v>
       </c>
       <c r="M7">
-        <v>272.6</v>
+        <v>448.9</v>
       </c>
       <c r="N7">
-        <v>0.1294642857142857</v>
+        <v>0.1174977097238581</v>
       </c>
       <c r="O7">
-        <v>1.401542416452442</v>
+        <v>-3.794590025359256</v>
       </c>
       <c r="P7">
-        <v>243.6</v>
+        <v>310.6</v>
       </c>
       <c r="Q7">
-        <v>0.1156914893617021</v>
+        <v>0.08129825939013219</v>
       </c>
       <c r="R7">
-        <v>1.252442159383033</v>
+        <v>-2.62552831783601</v>
       </c>
       <c r="S7">
-        <v>29.00000000000003</v>
+        <v>138.3</v>
       </c>
       <c r="T7">
-        <v>0.1063829787234044</v>
+        <v>0.3080864335041212</v>
       </c>
       <c r="U7">
-        <v>1018.3</v>
+        <v>1799.4</v>
       </c>
       <c r="V7">
-        <v>0.4836151215805471</v>
+        <v>0.4709854731056144</v>
       </c>
       <c r="W7">
-        <v>0.1171475034632295</v>
+        <v>-0.02203553999180419</v>
       </c>
       <c r="X7">
-        <v>0.1061363928662771</v>
+        <v>0.09712683173558055</v>
       </c>
       <c r="Y7">
-        <v>0.01101111059695244</v>
+        <v>-0.1191623717273848</v>
       </c>
       <c r="Z7">
-        <v>2.094927569984629</v>
+        <v>1.30556667158112</v>
       </c>
       <c r="AA7">
-        <v>0.1853463132889282</v>
+        <v>-0.01651256344910382</v>
       </c>
       <c r="AB7">
-        <v>0.08998016607786821</v>
+        <v>0.08454816843649969</v>
       </c>
       <c r="AC7">
-        <v>0.09536614721106002</v>
+        <v>-0.1010607318856035</v>
       </c>
       <c r="AD7">
-        <v>602.9</v>
+        <v>1025.6</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>602.9</v>
+        <v>1025.6</v>
       </c>
       <c r="AG7">
-        <v>-415.4</v>
+        <v>-773.8000000000002</v>
       </c>
       <c r="AH7">
-        <v>0.2225955325826103</v>
+        <v>0.2116340975217185</v>
       </c>
       <c r="AI7">
-        <v>0.2111437977166071</v>
+        <v>0.2036496495303906</v>
       </c>
       <c r="AJ7">
-        <v>-0.2457697313927346</v>
+        <v>-0.2539797157580334</v>
       </c>
       <c r="AK7">
-        <v>-0.2261172500136084</v>
+        <v>-0.2390706583866284</v>
       </c>
       <c r="AL7">
-        <v>13</v>
+        <v>42.6</v>
       </c>
       <c r="AM7">
-        <v>13</v>
+        <v>42.6</v>
+      </c>
+      <c r="AN7">
+        <v>-45.78571428571428</v>
       </c>
       <c r="AO7">
-        <v>48.36923076923077</v>
+        <v>-1.84037558685446</v>
+      </c>
+      <c r="AP7">
+        <v>34.54464285714287</v>
       </c>
       <c r="AQ7">
-        <v>48.36923076923077</v>
+        <v>-1.84037558685446</v>
       </c>
     </row>
     <row r="8">
@@ -1383,7 +1386,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rand Merchant Investment Holdings Limited (JSE:RMI)</t>
+          <t>Sanlam Limited (JSE:SLM)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1392,121 +1395,121 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0668</v>
+        <v>0.0611</v>
       </c>
       <c r="E8">
-        <v>0.058</v>
+        <v>-0.541</v>
       </c>
       <c r="G8">
-        <v>0.2487641242937853</v>
+        <v>0.2629685030480921</v>
       </c>
       <c r="H8">
-        <v>0.2487641242937853</v>
+        <v>0.2629685030480921</v>
       </c>
       <c r="I8">
-        <v>0.2355855615541365</v>
+        <v>0.1819823888010837</v>
       </c>
       <c r="J8">
-        <v>0.1883710998377083</v>
+        <v>0.09099119440054187</v>
       </c>
       <c r="K8">
-        <v>286.5</v>
+        <v>10.5</v>
       </c>
       <c r="L8">
-        <v>0.2529131355932204</v>
+        <v>0.001481711447279296</v>
       </c>
       <c r="M8">
-        <v>116</v>
+        <v>512.6</v>
       </c>
       <c r="N8">
-        <v>0.03440809183401062</v>
+        <v>0.0619141946081747</v>
       </c>
       <c r="O8">
-        <v>0.4048865619546248</v>
+        <v>48.81904761904762</v>
       </c>
       <c r="P8">
-        <v>116</v>
+        <v>460.9</v>
       </c>
       <c r="Q8">
-        <v>0.03440809183401062</v>
+        <v>0.0556696299159339</v>
       </c>
       <c r="R8">
-        <v>0.4048865619546248</v>
+        <v>43.89523809523809</v>
       </c>
       <c r="S8">
+        <v>51.70000000000005</v>
+      </c>
+      <c r="T8">
+        <v>0.1008583690987125</v>
+      </c>
+      <c r="U8">
+        <v>4606.5</v>
+      </c>
+      <c r="V8">
+        <v>0.5563943376171611</v>
+      </c>
+      <c r="W8">
+        <v>0.00224148236700538</v>
+      </c>
+      <c r="X8">
+        <v>0.08800694976611152</v>
+      </c>
+      <c r="Y8">
+        <v>-0.08576546739910615</v>
+      </c>
+      <c r="Z8">
+        <v>-17.77822378324135</v>
+      </c>
+      <c r="AA8">
+        <v>-1.617661816357251</v>
+      </c>
+      <c r="AB8">
+        <v>0.08316743860086499</v>
+      </c>
+      <c r="AC8">
+        <v>-1.700829254958116</v>
+      </c>
+      <c r="AD8">
+        <v>797.7</v>
+      </c>
+      <c r="AE8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>113.4</v>
-      </c>
-      <c r="V8">
-        <v>0.03363687598255866</v>
-      </c>
-      <c r="W8">
-        <v>0.1756052712228011</v>
-      </c>
-      <c r="X8">
-        <v>0.1036916780061924</v>
-      </c>
-      <c r="Y8">
-        <v>0.07191359321660869</v>
-      </c>
-      <c r="Z8">
-        <v>0.4778348857189919</v>
-      </c>
-      <c r="AA8">
-        <v>0.09001028296371218</v>
-      </c>
-      <c r="AB8">
-        <v>0.09015234790258628</v>
-      </c>
-      <c r="AC8">
-        <v>-0.0001420649388741008</v>
-      </c>
-      <c r="AD8">
-        <v>801.1</v>
-      </c>
-      <c r="AE8">
-        <v>5.393379357370899</v>
-      </c>
       <c r="AF8">
-        <v>806.4933793573709</v>
+        <v>797.7</v>
       </c>
       <c r="AG8">
-        <v>693.093379357371</v>
+        <v>-3808.8</v>
       </c>
       <c r="AH8">
-        <v>0.1930429071342503</v>
+        <v>0.08788242681972919</v>
       </c>
       <c r="AI8">
-        <v>0.3035246655698735</v>
+        <v>0.1531740850263067</v>
       </c>
       <c r="AJ8">
-        <v>0.1705281242897205</v>
+        <v>-0.8520042949176807</v>
       </c>
       <c r="AK8">
-        <v>0.2724752067139757</v>
+        <v>-6.334275735905536</v>
       </c>
       <c r="AL8">
-        <v>51.6</v>
+        <v>112.6</v>
       </c>
       <c r="AM8">
-        <v>51.6</v>
+        <v>112.6</v>
       </c>
       <c r="AN8">
-        <v>2.822265280958252</v>
+        <v>0.5553853651744065</v>
       </c>
       <c r="AO8">
-        <v>5.153100775193798</v>
+        <v>11.45293072824156</v>
       </c>
       <c r="AP8">
-        <v>2.441759307230477</v>
+        <v>-2.6518136879482</v>
       </c>
       <c r="AQ8">
-        <v>5.153100775193798</v>
+        <v>11.45293072824156</v>
       </c>
     </row>
     <row r="9">
@@ -1517,7 +1520,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Old Mutual Limited (JSE:OMU)</t>
+          <t>Momentum Metropolitan Holdings Limited (JSE:MTM)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1526,243 +1529,121 @@
         </is>
       </c>
       <c r="D9">
-        <v>-0.152</v>
+        <v>-0.0489</v>
       </c>
       <c r="E9">
-        <v>0.267</v>
-      </c>
-      <c r="F9">
-        <v>0.0537</v>
+        <v>-0.426</v>
       </c>
       <c r="G9">
-        <v>0.07574849102610226</v>
+        <v>0.121137498313318</v>
       </c>
       <c r="H9">
-        <v>0.07574849102610226</v>
+        <v>0.121137498313318</v>
       </c>
       <c r="I9">
-        <v>0.0732452198166097</v>
+        <v>0.09526379705842665</v>
       </c>
       <c r="J9">
-        <v>0.05284695573341164</v>
+        <v>0.04763189852921332</v>
       </c>
       <c r="K9">
-        <v>2089.5</v>
+        <v>10.3</v>
       </c>
       <c r="L9">
-        <v>0.2088080105528241</v>
+        <v>0.003474564836054514</v>
       </c>
       <c r="M9">
-        <v>563.5</v>
+        <v>72.7</v>
       </c>
       <c r="N9">
-        <v>0.08517745933853316</v>
+        <v>0.04670135543136121</v>
       </c>
       <c r="O9">
-        <v>0.2696817420435511</v>
+        <v>7.058252427184466</v>
       </c>
       <c r="P9">
-        <v>386.5</v>
+        <v>62.9</v>
       </c>
       <c r="Q9">
-        <v>0.05842251647620775</v>
+        <v>0.04040598702383246</v>
       </c>
       <c r="R9">
-        <v>0.1849724814548935</v>
+        <v>6.106796116504854</v>
       </c>
       <c r="S9">
-        <v>177</v>
+        <v>9.800000000000004</v>
       </c>
       <c r="T9">
-        <v>0.3141082519964508</v>
+        <v>0.1348005502063274</v>
       </c>
       <c r="U9">
-        <v>2429.4</v>
+        <v>1829.9</v>
       </c>
       <c r="V9">
-        <v>0.3672229276256122</v>
+        <v>1.175499453973148</v>
       </c>
       <c r="W9">
-        <v>0.2739070590548601</v>
+        <v>0.006589469643656837</v>
       </c>
       <c r="X9">
-        <v>0.1056915579571159</v>
+        <v>0.09194599308945037</v>
       </c>
       <c r="Y9">
-        <v>0.1682155010977441</v>
+        <v>-0.08535652344579353</v>
       </c>
       <c r="Z9">
-        <v>1.325992561112753</v>
+        <v>-40.49726775956282</v>
       </c>
       <c r="AA9">
-        <v>0.07007467017995876</v>
+        <v>-1.928961748633878</v>
       </c>
       <c r="AB9">
-        <v>0.09094963425033889</v>
+        <v>0.08334295505949817</v>
       </c>
       <c r="AC9">
-        <v>-0.02087496407038013</v>
+        <v>-2.012304703693376</v>
       </c>
       <c r="AD9">
-        <v>1808.7</v>
+        <v>265.7</v>
       </c>
       <c r="AE9">
-        <v>28.8486716957503</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>1837.54867169575</v>
+        <v>265.7</v>
       </c>
       <c r="AG9">
-        <v>-591.8513283042498</v>
+        <v>-1564.2</v>
       </c>
       <c r="AH9">
-        <v>0.2173803801474045</v>
+        <v>0.1457967515364355</v>
       </c>
       <c r="AI9">
-        <v>0.2468248093695817</v>
+        <v>0.1672752455300932</v>
       </c>
       <c r="AJ9">
-        <v>-0.09825299171016663</v>
+        <v>208.56</v>
       </c>
       <c r="AK9">
-        <v>-0.1180080124128514</v>
+        <v>6.477018633540373</v>
       </c>
       <c r="AL9">
-        <v>47.4</v>
+        <v>49.5</v>
       </c>
       <c r="AM9">
-        <v>47.4</v>
+        <v>49.5</v>
       </c>
       <c r="AN9">
-        <v>2.292337329852222</v>
+        <v>0.7399053188526872</v>
       </c>
       <c r="AO9">
-        <v>15.52320675105485</v>
+        <v>5.705050505050504</v>
       </c>
       <c r="AP9">
-        <v>-0.7501094120608475</v>
+        <v>-4.355889724310777</v>
       </c>
       <c r="AQ9">
-        <v>15.52320675105485</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>African Phoenix Investments Limited (JSE:AXL)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Insurance (Life)</t>
-        </is>
-      </c>
-      <c r="G10">
-        <v>-0.5894568690095847</v>
-      </c>
-      <c r="H10">
-        <v>-0.5894568690095847</v>
-      </c>
-      <c r="I10">
-        <v>-0.6008395846605149</v>
-      </c>
-      <c r="J10">
-        <v>-0.6008395846605149</v>
-      </c>
-      <c r="K10">
-        <v>-5.2</v>
-      </c>
-      <c r="L10">
-        <v>-0.8306709265175719</v>
-      </c>
-      <c r="M10">
-        <v>-0</v>
-      </c>
-      <c r="N10">
-        <v>-0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>-0</v>
-      </c>
-      <c r="Q10">
-        <v>-0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>45.6</v>
-      </c>
-      <c r="V10">
-        <v>0.5735849056603773</v>
-      </c>
-      <c r="W10">
-        <v>-0.09904761904761905</v>
-      </c>
-      <c r="X10">
-        <v>0.09141825082312317</v>
-      </c>
-      <c r="Y10">
-        <v>-0.1904658698707422</v>
-      </c>
-      <c r="Z10">
-        <v>0.3646684293110874</v>
-      </c>
-      <c r="AA10">
-        <v>-0.2191072276060761</v>
-      </c>
-      <c r="AB10">
-        <v>0.09127298293339399</v>
-      </c>
-      <c r="AC10">
-        <v>-0.3103802105394701</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0.2162789998741165</v>
-      </c>
-      <c r="AF10">
-        <v>0.2162789998741165</v>
-      </c>
-      <c r="AG10">
-        <v>-45.38372100012589</v>
-      </c>
-      <c r="AH10">
-        <v>0.002713109575453942</v>
-      </c>
-      <c r="AI10">
-        <v>0.002543971606595917</v>
-      </c>
-      <c r="AJ10">
-        <v>-1.330265853444725</v>
-      </c>
-      <c r="AK10">
-        <v>-1.151395366373138</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>-0</v>
-      </c>
-      <c r="AP10">
-        <v>12.50929465273591</v>
+        <v>5.705050505050504</v>
       </c>
     </row>
   </sheetData>
